--- a/fig/stable/stability_analysis.xlsx
+++ b/fig/stable/stability_analysis.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>138</v>
+        <v>40.72</v>
       </c>
       <c r="C2" t="n">
-        <v>137.69</v>
+        <v>41.66</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.29</v>
+        <v>46.33</v>
       </c>
       <c r="C3" t="n">
-        <v>62.16</v>
+        <v>46.51</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.09</v>
+        <v>14.83</v>
       </c>
       <c r="C4" t="n">
-        <v>35.24</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.47</v>
+        <v>10.99</v>
       </c>
       <c r="C5" t="n">
-        <v>14.92</v>
+        <v>14.39</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.82</v>
+        <v>24.54</v>
       </c>
       <c r="C6" t="n">
-        <v>46.78</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.15</v>
+        <v>14.34</v>
       </c>
       <c r="C7" t="n">
-        <v>23.05</v>
+        <v>14.45</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.43</v>
+        <v>9.07</v>
       </c>
       <c r="C8" t="n">
-        <v>15.42</v>
+        <v>9.039999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.61</v>
+        <v>5.85</v>
       </c>
       <c r="C9" t="n">
-        <v>12.61</v>
+        <v>5.87</v>
       </c>
     </row>
   </sheetData>
@@ -618,28 +618,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83.14</v>
+        <v>81.75</v>
       </c>
       <c r="C2" t="n">
-        <v>6.55</v>
+        <v>6.63</v>
       </c>
       <c r="D2" t="n">
-        <v>53.34</v>
+        <v>52.22</v>
       </c>
       <c r="E2" t="n">
         <v>9.789999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>77.06999999999999</v>
+        <v>76.20999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>57.34</v>
+        <v>54.04</v>
       </c>
       <c r="H2" t="n">
-        <v>31.08</v>
+        <v>33.24</v>
       </c>
       <c r="I2" t="n">
-        <v>10.04</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="3">
@@ -649,28 +649,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.56</v>
+        <v>41.7</v>
       </c>
       <c r="C3" t="n">
-        <v>0.35</v>
+        <v>0.48</v>
       </c>
       <c r="D3" t="n">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="E3" t="n">
-        <v>3.48</v>
+        <v>3.49</v>
       </c>
       <c r="F3" t="n">
-        <v>257.31</v>
+        <v>257.38</v>
       </c>
       <c r="G3" t="n">
-        <v>16.25</v>
+        <v>27.24</v>
       </c>
       <c r="H3" t="n">
-        <v>24.28</v>
+        <v>24.6</v>
       </c>
       <c r="I3" t="n">
-        <v>6.85</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="4">
@@ -680,28 +680,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.86</v>
+        <v>27.74</v>
       </c>
       <c r="C4" t="n">
-        <v>4.16</v>
+        <v>4.11</v>
       </c>
       <c r="D4" t="n">
-        <v>7.26</v>
+        <v>7.22</v>
       </c>
       <c r="E4" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="F4" t="n">
-        <v>41.39</v>
+        <v>41.3</v>
       </c>
       <c r="G4" t="n">
-        <v>1.41</v>
+        <v>16.94</v>
       </c>
       <c r="H4" t="n">
-        <v>6.66</v>
+        <v>6.93</v>
       </c>
       <c r="I4" t="n">
-        <v>2.48</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="5">
@@ -711,28 +711,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.48</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>3.46</v>
+        <v>3.36</v>
       </c>
       <c r="D5" t="n">
-        <v>9.710000000000001</v>
+        <v>9.67</v>
       </c>
       <c r="E5" t="n">
-        <v>30.88</v>
+        <v>28.25</v>
       </c>
       <c r="F5" t="n">
-        <v>10.63</v>
+        <v>10.62</v>
       </c>
       <c r="G5" t="n">
-        <v>5.69</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4.86</v>
       </c>
       <c r="I5" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="6">
@@ -742,28 +742,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.95</v>
+        <v>28.27</v>
       </c>
       <c r="C6" t="n">
-        <v>7.62</v>
+        <v>7.91</v>
       </c>
       <c r="D6" t="n">
-        <v>72.33</v>
+        <v>71.84</v>
       </c>
       <c r="E6" t="n">
-        <v>26.64</v>
+        <v>28.89</v>
       </c>
       <c r="F6" t="n">
-        <v>18.18</v>
+        <v>18.15</v>
       </c>
       <c r="G6" t="n">
-        <v>14.96</v>
+        <v>15.99</v>
       </c>
       <c r="H6" t="n">
-        <v>10.88</v>
+        <v>10.91</v>
       </c>
       <c r="I6" t="n">
-        <v>9.17</v>
+        <v>9.279999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -773,28 +773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.74</v>
+        <v>17.71</v>
       </c>
       <c r="C7" t="n">
-        <v>3.6</v>
+        <v>3.32</v>
       </c>
       <c r="D7" t="n">
         <v>40.54</v>
       </c>
       <c r="E7" t="n">
-        <v>16.38</v>
+        <v>16.39</v>
       </c>
       <c r="F7" t="n">
-        <v>15.47</v>
+        <v>15.41</v>
       </c>
       <c r="G7" t="n">
-        <v>6.17</v>
+        <v>13.12</v>
       </c>
       <c r="H7" t="n">
-        <v>6.21</v>
+        <v>6.06</v>
       </c>
       <c r="I7" t="n">
-        <v>2.35</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="8">
@@ -804,28 +804,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.51</v>
+        <v>9.49</v>
       </c>
       <c r="C8" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="D8" t="n">
-        <v>29.87</v>
+        <v>29.93</v>
       </c>
       <c r="E8" t="n">
-        <v>12.9</v>
+        <v>12.78</v>
       </c>
       <c r="F8" t="n">
-        <v>9.74</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.38</v>
+        <v>8.09</v>
       </c>
       <c r="H8" t="n">
-        <v>0.26</v>
+        <v>0.46</v>
       </c>
       <c r="I8" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="9">
@@ -835,28 +835,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="C9" t="n">
-        <v>3.34</v>
+        <v>3.3</v>
       </c>
       <c r="D9" t="n">
         <v>13.69</v>
       </c>
       <c r="E9" t="n">
-        <v>18</v>
+        <v>18.04</v>
       </c>
       <c r="F9" t="n">
-        <v>4.22</v>
+        <v>4.14</v>
       </c>
       <c r="G9" t="n">
-        <v>3.49</v>
+        <v>5.32</v>
       </c>
       <c r="H9" t="n">
-        <v>0.86</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/fig/stable/stability_analysis.xlsx
+++ b/fig/stable/stability_analysis.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Platform_Stability" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User_Stability" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User_Stability_Mean" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User_Stability_Median" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.72</v>
+        <v>17.31</v>
       </c>
       <c r="C2" t="n">
-        <v>41.66</v>
+        <v>17.41</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.33</v>
+        <v>12.54</v>
       </c>
       <c r="C3" t="n">
-        <v>46.51</v>
+        <v>12.73</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.83</v>
+        <v>9.69</v>
       </c>
       <c r="C4" t="n">
-        <v>14.8</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +493,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.99</v>
+        <v>6.37</v>
       </c>
       <c r="C5" t="n">
-        <v>14.39</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +506,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.54</v>
+        <v>16.96</v>
       </c>
       <c r="C6" t="n">
-        <v>25.02</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +519,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.34</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>14.45</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +532,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.07</v>
+        <v>7.31</v>
       </c>
       <c r="C8" t="n">
-        <v>9.039999999999999</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +545,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.85</v>
+        <v>5.66</v>
       </c>
       <c r="C9" t="n">
-        <v>5.87</v>
+        <v>5.6</v>
       </c>
     </row>
   </sheetData>
@@ -561,7 +562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,40 +573,60 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>dx</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>dyl</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>jyh</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>km</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>lry</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>lzh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>sl</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>wdy</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>wf</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>wzr</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>zjc</t>
         </is>
@@ -618,28 +639,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81.75</v>
+        <v>4.46</v>
       </c>
       <c r="C2" t="n">
-        <v>6.63</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>52.22</v>
+        <v>14.15</v>
       </c>
       <c r="E2" t="n">
-        <v>9.789999999999999</v>
+        <v>15.06</v>
       </c>
       <c r="F2" t="n">
-        <v>76.20999999999999</v>
+        <v>29.36</v>
       </c>
       <c r="G2" t="n">
-        <v>54.04</v>
+        <v>41.44</v>
       </c>
       <c r="H2" t="n">
-        <v>33.24</v>
+        <v>5.87</v>
       </c>
       <c r="I2" t="n">
-        <v>10.14</v>
+        <v>13.57</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="L2" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9.76</v>
       </c>
     </row>
     <row r="3">
@@ -649,28 +682,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.7</v>
+        <v>16.07</v>
       </c>
       <c r="C3" t="n">
-        <v>0.48</v>
+        <v>19.05</v>
       </c>
       <c r="D3" t="n">
-        <v>1.89</v>
+        <v>9.85</v>
       </c>
       <c r="E3" t="n">
-        <v>3.49</v>
+        <v>4.51</v>
       </c>
       <c r="F3" t="n">
-        <v>257.38</v>
+        <v>26.44</v>
       </c>
       <c r="G3" t="n">
-        <v>27.24</v>
+        <v>12.51</v>
       </c>
       <c r="H3" t="n">
-        <v>24.6</v>
+        <v>6.45</v>
       </c>
       <c r="I3" t="n">
-        <v>6.96</v>
+        <v>11.51</v>
+      </c>
+      <c r="J3" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5.68</v>
       </c>
     </row>
     <row r="4">
@@ -680,28 +725,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.74</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>4.11</v>
+        <v>0.09</v>
       </c>
       <c r="D4" t="n">
-        <v>7.22</v>
+        <v>5.96</v>
       </c>
       <c r="E4" t="n">
-        <v>2.8</v>
+        <v>6.76</v>
       </c>
       <c r="F4" t="n">
-        <v>41.3</v>
+        <v>22.12</v>
       </c>
       <c r="G4" t="n">
-        <v>16.94</v>
+        <v>8.25</v>
       </c>
       <c r="H4" t="n">
-        <v>6.93</v>
+        <v>7.75</v>
       </c>
       <c r="I4" t="n">
-        <v>2.57</v>
+        <v>18.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>20.84</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7.04</v>
       </c>
     </row>
     <row r="5">
@@ -711,28 +768,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.470000000000001</v>
+        <v>2.35</v>
       </c>
       <c r="C5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M5" t="n">
         <v>3.36</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="E5" t="n">
-        <v>28.25</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.62</v>
       </c>
     </row>
     <row r="6">
@@ -742,28 +811,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.27</v>
+        <v>2.26</v>
       </c>
       <c r="C6" t="n">
-        <v>7.91</v>
+        <v>2.26</v>
       </c>
       <c r="D6" t="n">
-        <v>71.84</v>
+        <v>31.49</v>
       </c>
       <c r="E6" t="n">
-        <v>28.89</v>
+        <v>14.71</v>
       </c>
       <c r="F6" t="n">
-        <v>18.15</v>
+        <v>17.24</v>
       </c>
       <c r="G6" t="n">
-        <v>15.99</v>
+        <v>16.14</v>
       </c>
       <c r="H6" t="n">
-        <v>10.91</v>
+        <v>11.81</v>
       </c>
       <c r="I6" t="n">
-        <v>9.279999999999999</v>
+        <v>17.28</v>
+      </c>
+      <c r="J6" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="K6" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="L6" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10.53</v>
       </c>
     </row>
     <row r="7">
@@ -773,28 +854,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.71</v>
+        <v>1.87</v>
       </c>
       <c r="C7" t="n">
-        <v>3.32</v>
+        <v>0.5</v>
       </c>
       <c r="D7" t="n">
-        <v>40.54</v>
+        <v>12.81</v>
       </c>
       <c r="E7" t="n">
-        <v>16.39</v>
+        <v>6.48</v>
       </c>
       <c r="F7" t="n">
-        <v>15.41</v>
+        <v>17.1</v>
       </c>
       <c r="G7" t="n">
-        <v>13.12</v>
+        <v>2.78</v>
       </c>
       <c r="H7" t="n">
-        <v>6.06</v>
+        <v>10.64</v>
       </c>
       <c r="I7" t="n">
-        <v>2.26</v>
+        <v>14.16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7.45</v>
       </c>
     </row>
     <row r="8">
@@ -804,28 +897,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.49</v>
+        <v>4.14</v>
       </c>
       <c r="C8" t="n">
-        <v>1.2</v>
+        <v>4.62</v>
       </c>
       <c r="D8" t="n">
-        <v>29.93</v>
+        <v>11.8</v>
       </c>
       <c r="E8" t="n">
-        <v>12.78</v>
+        <v>2.32</v>
       </c>
       <c r="F8" t="n">
-        <v>9.869999999999999</v>
+        <v>18.67</v>
       </c>
       <c r="G8" t="n">
-        <v>8.09</v>
+        <v>5.86</v>
       </c>
       <c r="H8" t="n">
-        <v>0.46</v>
+        <v>12.08</v>
       </c>
       <c r="I8" t="n">
-        <v>1.55</v>
+        <v>8.83</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4.69</v>
       </c>
     </row>
     <row r="9">
@@ -835,28 +940,465 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.21</v>
+        <v>3.09</v>
       </c>
       <c r="C9" t="n">
-        <v>3.3</v>
+        <v>8.74</v>
       </c>
       <c r="D9" t="n">
-        <v>13.69</v>
+        <v>6.7</v>
       </c>
       <c r="E9" t="n">
-        <v>18.04</v>
+        <v>1.88</v>
       </c>
       <c r="F9" t="n">
-        <v>4.14</v>
+        <v>4.34</v>
       </c>
       <c r="G9" t="n">
-        <v>5.32</v>
+        <v>3.89</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8100000000000001</v>
+        <v>19.07</v>
       </c>
       <c r="I9" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L9" t="n">
         <v>1.61</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>dx</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>dyl</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>jyh</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>km</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>lry</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>lzh</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>sl</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>wdy</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>wzr</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>zjc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="C2" t="n">
+        <v>40.91</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="G2" t="n">
+        <v>40.41</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="L2" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9.609999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19.47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F3" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="J3" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="J4" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="F5" t="n">
+        <v>17.87</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="F6" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="J6" t="n">
+        <v>25.57</v>
+      </c>
+      <c r="K6" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="L6" t="n">
+        <v>34.88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="J7" t="n">
+        <v>17.87</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F8" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="H9" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.83</v>
       </c>
     </row>
   </sheetData>
